--- a/public/template_kategori.xlsx
+++ b/public/template_kategori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E253C3-5C4B-45C2-B04D-D4D9C4793E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A63D40-2DA3-4476-B169-3FF55BD98B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3168" windowWidth="13800" windowHeight="7092" xr2:uid="{DF2AB990-F29B-4CD8-8F4F-B5A6C3635EE1}"/>
+    <workbookView xWindow="4224" yWindow="4212" windowWidth="13800" windowHeight="7092" xr2:uid="{DF2AB990-F29B-4CD8-8F4F-B5A6C3635EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,10 @@
     <t>Mandi</t>
   </si>
   <si>
-    <t>PKN</t>
-  </si>
-  <si>
     <t>Pakaian</t>
+  </si>
+  <si>
+    <t>PKN1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,10 +433,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
